--- a/BGG_Automation/data/data.xlsx
+++ b/BGG_Automation/data/data.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name=" 04.03.24 00-15" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name=" 04.03.24 00-18" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name=" 04.03.24 01-50" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name=" 04.03.24 02-02" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6520,4 +6522,6106 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Geek Rating</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Num Voters</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Brass: Birmingham</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/224517/brass-birmingham</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.417</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>43857</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pandemic Legacy: Season 1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/161936/pandemic-legacy-season-1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.384</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>52766</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gloomhaven</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/174430/gloomhaven</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.364</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>61275</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ark Nova</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/342942/ark-nova</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.333</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>40466</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Twilight Imperium: Fourth Edition</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/233078/twilight-imperium-fourth-edition</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.242</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>23022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dune: Imperium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/316554/dune-imperium</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.223</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>42514</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terraforming Mars</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/167791/terraforming-mars</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.218</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>96625</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>War of the Ring: Second Edition</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/115746/war-ring-second-edition</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.180</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>20748</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gloomhaven: Jaws of the Lion</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/291457/gloomhaven-jaws-lion</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.175</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>32984</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Star Wars: Rebellion</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/187645/star-wars-rebellion</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>31793</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Spirit Island</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/162886/spirit-island</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.148</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>49542</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>23</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gaia Project</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/220308/gaia-project</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.121</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>26449</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>25</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Twilight Struggle</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/12333/twilight-struggle</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.070</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>48203</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Through the Ages: A New Story of Civilization</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/182028/through-ages-new-story-civilization</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.065</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>31123</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>29</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Great Western Trail</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/193738/great-western-trail</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.037</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>40253</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The Castles of Burgundy</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/84876/castles-burgundy</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.013</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>61025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Scythe</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/169786/scythe</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.998</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>81705</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7 Wonders Duel</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/173346/7-wonders-duel</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.972</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>92131</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Eclipse: Second Dawn for the Galaxy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/246900/eclipse-second-dawn-galaxy</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.970</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12853</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Brass: Lancashire</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/28720/brass-lancashire</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.961</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>24557</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nemesis</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/167355/nemesis</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.957</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>29370</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>43</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Clank! Legacy: Acquisitions Incorporated</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/266507/clank-legacy-acquisitions-incorporated</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.947</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9082</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>45</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A Feast for Odin</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/177736/feast-odin</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.945</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>27672</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>47</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Concordia</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/124361/concordia</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.945</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>39693</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>49</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Wingspan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/266192/wingspan</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.911</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>89840</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>51</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Terra Mystica</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/120677/terra-mystica</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.902</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>47444</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Arkham Horror: The Card Game</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/205637/arkham-horror-card-game</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.901</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>42273</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>55</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lost Ruins of Arnak</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/312484/lost-ruins-arnak</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.899</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>41920</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Great Western Trail: Second Edition</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/341169/great-western-trail-second-edition</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.893</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>11632</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Root</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/237182/root</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.886</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>49227</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>61</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Orléans</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/164928/orleans</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.873</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>30733</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Too Many Bones</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/192135/too-many-bones</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.858</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>12592</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mage Knight Board Game</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/96848/mage-knight-board-game</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.856</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>32957</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>67</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Frosthaven</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/295770/frosthaven</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.854</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6370</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>69</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Everdell</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/199792/everdell</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.854</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>52353</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>71</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Barrage</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/251247/barrage</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>16978</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>73</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>The Crew: Mission Deep Sea</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/324856/crew-mission-deep-sea</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.849</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>16127</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>75</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Viticulture Essential Edition</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/183394/viticulture-essential-edition</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.845</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>47594</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>77</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Food Chain Magnate</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/175914/food-chain-magnate</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.806</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>19983</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>79</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Marvel Champions: The Card Game</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/285774/marvel-champions-card-game</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.799</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>22862</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>81</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pax Pamir: Second Edition</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/256960/pax-pamir-second-edition</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.796</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>13340</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>83</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Underwater Cities</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/247763/underwater-cities</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.788</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>18974</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>85</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Puerto Rico</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/3076/puerto-rico</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.782</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>70446</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>87</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Heat: Pedal to the Metal</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/366013/heat-pedal-metal</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.779</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>19051</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>89</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Cascadia</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/295947/cascadia</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.775</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>35556</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>91</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Caverna: The Cave Farmers</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/102794/caverna-cave-farmers</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.768</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>34371</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>93</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Blood Rage</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/170216/blood-rage</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.763</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>46263</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>95</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Crokinole</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/521/crokinole</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.761</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>17550</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>97</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Anachrony</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/185343/anachrony</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.758</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>18127</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>99</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>On Mars</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/184267/mars</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.754</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>12187</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>101</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Agricola</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/31260/agricola</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.754</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>72137</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>103</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sleeping Gods</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/255984/sleeping-gods</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.747</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>11202</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>105</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Kanban EV</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/284378/kanban-ev</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.747</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7207</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>107</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pandemic Legacy: Season 0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/314040/pandemic-legacy-season-0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.745</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7318</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>109</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pandemic Legacy: Season 2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/221107/pandemic-legacy-season-2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.728</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>16632</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Mansions of Madness: Second Edition</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/205059/mansions-madness-second-edition</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.719</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>35680</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>113</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/161533/lisboa</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.718</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>10771</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>115</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Maracaibo</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/276025/maracaibo</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.712</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>15660</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>117</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Tzolk'in: The Mayan Calendar</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/126163/tzolk-mayan-calendar</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.706</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>38745</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>119</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Power Grid</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/2651/power-grid</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.704</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>64768</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>121</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Cthulhu: Death May Die</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/253344/cthulhu-death-may-die</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.697</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>11682</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>123</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>The Quacks of Quedlinburg</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/244521/quacks-quedlinburg</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.689</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>47943</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>125</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Clans of Caledonia</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/216132/clans-caledonia</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.685</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>20087</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>127</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/35677/le-havre</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.683</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>31268</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>129</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Obsession</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/231733/obsession</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.682</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>11088</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>131</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Grand Austria Hotel</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/182874/grand-austria-hotel</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.681</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>20230</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>133</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Paladins of the West Kingdom</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/266810/paladins-west-kingdom</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.680</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>17278</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>135</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Star Wars: Imperial Assault</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/164153/star-wars-imperial-assault</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.677</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>24392</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>137</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>The Gallerist</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/125153/gallerist</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.676</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>14251</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>139</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>The Crew: The Quest for Planet Nine</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/284083/crew-quest-planet-nine</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>40438</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>141</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Mechs vs. Minions</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/209010/mechs-vs-minions</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.665</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>17269</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>143</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Android: Netrunner</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/124742/android-netrunner</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.658</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>29905</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>145</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Kingdom Death: Monster</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/55690/kingdom-death-monster</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.654</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9504</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>147</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Azul</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/230802/azul</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.644</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>87718</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>149</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Agricola (Revised Edition)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/200680/agricola-revised-edition</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.638</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>17254</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>151</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Race for the Galaxy</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/28143/race-galaxy</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.631</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>54933</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>153</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Five Tribes: The Djinns of Naqala</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/157354/five-tribes-djinns-naqala</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.625</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>40913</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>155</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Eclipse: New Dawn for the Galaxy</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/72125/eclipse-new-dawn-galaxy</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.623</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>28243</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>157</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Clank!: A Deck-Building Adventure</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/201808/clank-deck-building-adventure</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.620</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>41463</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>159</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Aeon's End</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/191189/aeons-end</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.620</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>20048</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>161</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Oathsworn: Into the Deepwood</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/251661/oathsworn-deepwood</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.609</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4207</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>163</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Fields of Arle</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/159675/fields-arle</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.606</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>10783</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>165</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Teotihuacan: City of Gods</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/229853/teotihuacan-city-gods</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.601</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>19522</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>167</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Beyond the Sun</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/317985/beyond-sun</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.601</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>13803</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>169</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Through the Ages: A Story of Civilization</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/25613/through-ages-story-civilization</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.600</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>19268</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>171</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Lords of Waterdeep</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/110327/lords-waterdeep</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7.594</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>54927</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>173</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Dominant Species</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/62219/dominant-species</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.582</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>20986</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>175</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>The Voyages of Marco Polo</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/171623/voyages-marco-polo</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.581</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>24607</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>177</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Robinson Crusoe: Adventures on the Cursed Island</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/121921/robinson-crusoe-adventures-cursed-island</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.580</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>42849</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>179</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>7 Wonders</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/68448/7-wonders</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.578</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>103280</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>181</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>The Search for Planet X</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/279537/search-planet-x</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7.569</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>11515</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>183</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>El Grande</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/93/el-grande</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.565</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>28021</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>185</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Hegemony: Lead Your Class to Victory</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/321608/hegemony-lead-your-class-victory</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7.553</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4993</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>187</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Tainted Grail: The Fall of Avalon</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/264220/tainted-grail-fall-avalon</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7.549</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>12047</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>189</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Battlestar Galactica: The Board Game</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/37111/battlestar-galactica-board-game</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>7.542</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>36300</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>191</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Architects of the West Kingdom</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/236457/architects-west-kingdom</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>7.542</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>28377</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>193</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Decrypto</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/225694/decrypto</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>7.540</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>21781</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>195</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Inis</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/155821/inis</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>7.539</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>19640</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>197</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Trickerion: Legends of Illusion</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/163068/trickerion-legends-illusion</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>7.533</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>10600</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>199</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Keyflower</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/122515/keyflower</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>7.528</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>22869</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Geek Rating</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Rating</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Num Voters</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Brass: Birmingham</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/224517/brass-birmingham</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.417</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>43857</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pandemic Legacy: Season 1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/161936/pandemic-legacy-season-1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.384</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>52766</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gloomhaven</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/174430/gloomhaven</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.364</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>61275</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ark Nova</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/342942/ark-nova</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.333</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>40466</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Twilight Imperium: Fourth Edition</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/233078/twilight-imperium-fourth-edition</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.242</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>23022</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dune: Imperium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/316554/dune-imperium</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.223</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>42514</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>13</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Terraforming Mars</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/167791/terraforming-mars</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.218</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>96625</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>15</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>War of the Ring: Second Edition</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/115746/war-ring-second-edition</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.180</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>20748</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gloomhaven: Jaws of the Lion</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/291457/gloomhaven-jaws-lion</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.175</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>32984</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Star Wars: Rebellion</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/187645/star-wars-rebellion</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.171</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>31793</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Spirit Island</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/162886/spirit-island</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.148</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>49542</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>23</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gaia Project</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/220308/gaia-project</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.121</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>26449</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>25</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Twilight Struggle</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/12333/twilight-struggle</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.070</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>48203</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Through the Ages: A New Story of Civilization</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/182028/through-ages-new-story-civilization</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.065</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>31123</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>29</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Great Western Trail</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/193738/great-western-trail</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.037</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>40253</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The Castles of Burgundy</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/84876/castles-burgundy</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.013</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>61025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Scythe</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/169786/scythe</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.998</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>81705</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>7 Wonders Duel</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/173346/7-wonders-duel</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.972</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>92131</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Eclipse: Second Dawn for the Galaxy</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/246900/eclipse-second-dawn-galaxy</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.970</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>12853</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>39</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Brass: Lancashire</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/28720/brass-lancashire</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.961</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>24557</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nemesis</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/167355/nemesis</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.957</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>29370</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>43</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Clank! Legacy: Acquisitions Incorporated</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/266507/clank-legacy-acquisitions-incorporated</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.947</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9082</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>45</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A Feast for Odin</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/177736/feast-odin</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.945</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>27672</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>47</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Concordia</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/124361/concordia</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.945</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>39693</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>49</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Wingspan</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/266192/wingspan</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.911</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>89840</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>51</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Terra Mystica</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/120677/terra-mystica</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.902</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>47444</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Arkham Horror: The Card Game</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/205637/arkham-horror-card-game</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.901</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>42273</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>55</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Lost Ruins of Arnak</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/312484/lost-ruins-arnak</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.899</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>41920</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Great Western Trail: Second Edition</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/341169/great-western-trail-second-edition</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.893</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>11632</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Root</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/237182/root</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.886</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>49227</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>61</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Orléans</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/164928/orleans</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.873</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>30733</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Too Many Bones</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/192135/too-many-bones</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.858</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>12592</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>65</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mage Knight Board Game</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/96848/mage-knight-board-game</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.856</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>32957</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>67</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Frosthaven</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/295770/frosthaven</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.854</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6370</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>69</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Everdell</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/199792/everdell</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.854</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>52353</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>71</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Barrage</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/251247/barrage</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.850</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>16978</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>73</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>The Crew: Mission Deep Sea</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/324856/crew-mission-deep-sea</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.849</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>16127</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>75</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Viticulture Essential Edition</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/183394/viticulture-essential-edition</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.845</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>47594</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>77</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Food Chain Magnate</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/175914/food-chain-magnate</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.806</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>19983</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>79</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Marvel Champions: The Card Game</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/285774/marvel-champions-card-game</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.799</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>22862</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>81</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Pax Pamir: Second Edition</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/256960/pax-pamir-second-edition</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.796</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>13340</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>83</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Underwater Cities</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/247763/underwater-cities</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.788</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>18974</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>85</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Puerto Rico</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/3076/puerto-rico</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.782</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>70446</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>87</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Heat: Pedal to the Metal</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/366013/heat-pedal-metal</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.779</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>19051</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>89</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Cascadia</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/295947/cascadia</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.775</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>35556</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>91</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Caverna: The Cave Farmers</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/102794/caverna-cave-farmers</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.768</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>34371</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>93</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Blood Rage</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/170216/blood-rage</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.763</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>46263</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>95</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Crokinole</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/521/crokinole</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.761</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>17550</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>97</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Anachrony</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/185343/anachrony</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.758</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>18127</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>99</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>On Mars</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/184267/mars</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.754</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>12187</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>101</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Agricola</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/31260/agricola</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.754</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>72137</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>103</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sleeping Gods</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/255984/sleeping-gods</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.747</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>11202</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>105</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Kanban EV</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/284378/kanban-ev</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.747</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7207</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>107</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pandemic Legacy: Season 0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/314040/pandemic-legacy-season-0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.745</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7318</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>109</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Pandemic Legacy: Season 2</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/221107/pandemic-legacy-season-2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.728</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>16632</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Mansions of Madness: Second Edition</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/205059/mansions-madness-second-edition</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.719</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>35680</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>113</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Lisboa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/161533/lisboa</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.718</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>10771</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>115</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Maracaibo</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/276025/maracaibo</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>7.712</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>15660</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>117</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Tzolk'in: The Mayan Calendar</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/126163/tzolk-mayan-calendar</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.706</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>38745</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>119</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Power Grid</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/2651/power-grid</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.704</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>64768</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>121</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Cthulhu: Death May Die</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/253344/cthulhu-death-may-die</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.697</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>11682</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>123</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>The Quacks of Quedlinburg</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/244521/quacks-quedlinburg</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.689</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>47943</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>125</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Clans of Caledonia</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/216132/clans-caledonia</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.685</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>20087</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>127</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/35677/le-havre</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>7.683</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>31268</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>129</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Obsession</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/231733/obsession</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.682</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>11088</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>131</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Grand Austria Hotel</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/182874/grand-austria-hotel</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.681</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>20230</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>133</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Paladins of the West Kingdom</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/266810/paladins-west-kingdom</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.680</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>17278</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>135</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Star Wars: Imperial Assault</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/164153/star-wars-imperial-assault</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.677</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>24392</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>137</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>The Gallerist</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/125153/gallerist</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.676</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>14251</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>139</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>The Crew: The Quest for Planet Nine</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/284083/crew-quest-planet-nine</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>7.670</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>40438</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>141</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Mechs vs. Minions</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/209010/mechs-vs-minions</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>7.665</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>17269</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>143</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Android: Netrunner</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/124742/android-netrunner</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.658</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>29905</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>145</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Kingdom Death: Monster</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/55690/kingdom-death-monster</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.654</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9504</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>147</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Azul</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/230802/azul</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.644</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>87718</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>149</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Agricola (Revised Edition)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/200680/agricola-revised-edition</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>7.638</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>17254</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>151</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Race for the Galaxy</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/28143/race-galaxy</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.631</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>54933</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>153</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Five Tribes: The Djinns of Naqala</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/157354/five-tribes-djinns-naqala</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.625</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>40913</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>155</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Eclipse: New Dawn for the Galaxy</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/72125/eclipse-new-dawn-galaxy</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.623</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>28243</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>157</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Clank!: A Deck-Building Adventure</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/201808/clank-deck-building-adventure</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.620</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>41463</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>159</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Aeon's End</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/191189/aeons-end</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>7.620</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>20048</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>161</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Oathsworn: Into the Deepwood</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/251661/oathsworn-deepwood</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.609</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4207</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>163</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Fields of Arle</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/159675/fields-arle</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.606</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>10783</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>165</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Teotihuacan: City of Gods</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/229853/teotihuacan-city-gods</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.601</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>19522</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>167</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Beyond the Sun</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/317985/beyond-sun</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.601</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>13803</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>169</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Through the Ages: A Story of Civilization</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/25613/through-ages-story-civilization</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.600</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>19268</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>171</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Lords of Waterdeep</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/110327/lords-waterdeep</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7.594</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>54927</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>173</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Dominant Species</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/62219/dominant-species</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.582</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>20986</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>175</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>The Voyages of Marco Polo</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/171623/voyages-marco-polo</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7.581</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>24607</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>177</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Robinson Crusoe: Adventures on the Cursed Island</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/121921/robinson-crusoe-adventures-cursed-island</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7.580</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>42849</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>179</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>7 Wonders</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/68448/7-wonders</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.578</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>103280</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>181</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>The Search for Planet X</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/279537/search-planet-x</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7.569</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>11515</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>183</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>El Grande</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/93/el-grande</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7.565</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>28021</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>185</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Hegemony: Lead Your Class to Victory</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/321608/hegemony-lead-your-class-victory</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7.553</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4993</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>187</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Tainted Grail: The Fall of Avalon</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/264220/tainted-grail-fall-avalon</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>7.549</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>12047</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>189</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Battlestar Galactica: The Board Game</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/37111/battlestar-galactica-board-game</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>7.542</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>36300</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>191</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Architects of the West Kingdom</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/236457/architects-west-kingdom</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>7.542</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>28377</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>193</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Decrypto</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/225694/decrypto</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>7.540</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>21781</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>195</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Inis</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/155821/inis</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>7.539</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>19640</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>197</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Trickerion: Legends of Illusion</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/163068/trickerion-legends-illusion</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>7.533</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>10600</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>199</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Keyflower</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://boardgamegeek.com/boardgame/122515/keyflower</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>7.528</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>22869</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>